--- a/CatstoryGame/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/CatstoryGame/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,18 +69,6 @@
   </si>
   <si>
     <t>죽어도 싫다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고르고 골라라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㅎ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -514,29 +502,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CatstoryGame/Assets/Resources/ExcelDB/SelectDB.xlsx
+++ b/CatstoryGame/Assets/Resources/ExcelDB/SelectDB.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,19 +56,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>선택지를 고르세요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시끄러워</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꺼져</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>죽어도 싫다</t>
+    <t>sdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,7 +430,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -484,22 +480,22 @@
         <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
